--- a/data/trans_dic/P19D_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,24; 96,54</t>
+          <t>79,75; 95,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,32; 92,18</t>
+          <t>77,96; 91,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,9; 96,81</t>
+          <t>85,6; 96,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,13; 97,04</t>
+          <t>85,95; 97,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,79; 97,47</t>
+          <t>88,81; 98,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,33; 93,68</t>
+          <t>78,8; 93,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,36; 94,26</t>
+          <t>81,06; 94,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,23; 96,83</t>
+          <t>89,61; 96,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,93; 96,31</t>
+          <t>87,22; 96,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>80,4; 90,93</t>
+          <t>81,15; 91,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,2; 94,41</t>
+          <t>85,75; 94,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,62; 96,13</t>
+          <t>89,97; 96,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,99; 95,85</t>
+          <t>90,62; 95,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,32; 87,57</t>
+          <t>80,73; 87,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,38; 91,19</t>
+          <t>85,27; 91,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,74; 92,47</t>
+          <t>86,95; 92,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,19; 96,35</t>
+          <t>91,92; 96,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,99; 90,66</t>
+          <t>85,16; 90,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,92; 94,1</t>
+          <t>88,49; 93,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,16; 96,07</t>
+          <t>93,16; 96,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,36; 95,63</t>
+          <t>92,41; 95,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,8; 88,43</t>
+          <t>83,91; 88,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,18</t>
+          <t>87,87; 92,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>90,78; 94,03</t>
+          <t>90,91; 93,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,49; 94,96</t>
+          <t>91,22; 95,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,79; 87,84</t>
+          <t>82,64; 87,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,28; 93,44</t>
+          <t>89,18; 93,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,8; 92,33</t>
+          <t>70,52; 92,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,2; 94,84</t>
+          <t>91,37; 94,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,44; 90,07</t>
+          <t>85,71; 90,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,14; 93,07</t>
+          <t>89,37; 93,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,87; 95,4</t>
+          <t>92,79; 95,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,85; 94,54</t>
+          <t>91,8; 94,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,06; 88,3</t>
+          <t>84,88; 88,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,99; 92,8</t>
+          <t>89,9; 92,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,19; 93,4</t>
+          <t>83,68; 93,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,44; 93,44</t>
+          <t>88,76; 93,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,01; 87,94</t>
+          <t>82,07; 87,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,19; 93,6</t>
+          <t>88,41; 93,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,46; 94,49</t>
+          <t>89,2; 94,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,17; 95,2</t>
+          <t>91,13; 95,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,38; 92,23</t>
+          <t>87,63; 92,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,33; 94,73</t>
+          <t>90,09; 94,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,56; 97,12</t>
+          <t>93,8; 97,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,55; 93,62</t>
+          <t>90,55; 93,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,66; 89,57</t>
+          <t>85,79; 89,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,15; 93,4</t>
+          <t>90,15; 93,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,33; 95,69</t>
+          <t>92,38; 95,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,88; 94,45</t>
+          <t>91,09; 94,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,39; 91,77</t>
+          <t>86,96; 91,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,88; 92,07</t>
+          <t>87,77; 91,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,81; 93,53</t>
+          <t>89,68; 93,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,73; 93,44</t>
+          <t>89,68; 93,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,94; 92,01</t>
+          <t>87,81; 91,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,45; 91,64</t>
+          <t>87,62; 91,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,76; 94,36</t>
+          <t>90,88; 94,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,89; 93,5</t>
+          <t>90,85; 93,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,41; 91,37</t>
+          <t>88,35; 91,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>88,22; 91,33</t>
+          <t>88,17; 91,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>90,94; 93,56</t>
+          <t>91,0; 93,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,57; 93,62</t>
+          <t>91,52; 93,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,89; 87,56</t>
+          <t>85,01; 87,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,51; 91,77</t>
+          <t>89,58; 91,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,0; 92,01</t>
+          <t>85,74; 92,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,98; 93,93</t>
+          <t>91,94; 93,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,81; 90,07</t>
+          <t>87,79; 90,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,06; 92,17</t>
+          <t>89,99; 92,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>93,19; 94,92</t>
+          <t>93,31; 94,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,12; 93,6</t>
+          <t>92,14; 93,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>86,78; 88,58</t>
+          <t>86,92; 88,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,02; 91,61</t>
+          <t>89,98; 91,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>89,48; 93,33</t>
+          <t>89,7; 93,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,75; 95,77</t>
+          <t>81,46; 95,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,96; 91,5</t>
+          <t>78,15; 91,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,6; 96,81</t>
+          <t>85,53; 97,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,81; 98,01</t>
+          <t>89,0; 98,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,8; 93,55</t>
+          <t>78,85; 94,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,06; 94,34</t>
+          <t>81,56; 93,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,22; 96,0</t>
+          <t>87,48; 96,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81,15; 91,14</t>
+          <t>81,19; 91,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,75; 94,26</t>
+          <t>85,72; 94,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,62; 95,69</t>
+          <t>90,84; 95,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,73; 87,42</t>
+          <t>80,7; 87,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,27; 91,53</t>
+          <t>85,29; 91,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,92; 96,37</t>
+          <t>91,88; 96,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,16; 90,64</t>
+          <t>85,11; 90,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,49; 93,89</t>
+          <t>88,67; 93,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,41; 95,58</t>
+          <t>92,39; 95,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,91; 88,49</t>
+          <t>84,03; 88,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87,87; 92,06</t>
+          <t>88,15; 91,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,22; 95,14</t>
+          <t>91,13; 94,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,64; 87,78</t>
+          <t>82,57; 87,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,18; 93,21</t>
+          <t>89,51; 93,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,37; 94,96</t>
+          <t>91,13; 94,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,71; 90,15</t>
+          <t>85,43; 90,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,37; 93,26</t>
+          <t>89,37; 93,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,8; 94,42</t>
+          <t>91,77; 94,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,88; 88,23</t>
+          <t>84,9; 88,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,9; 92,83</t>
+          <t>90,01; 92,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,76; 93,55</t>
+          <t>88,3; 93,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,07; 87,94</t>
+          <t>82,08; 88,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,41; 93,48</t>
+          <t>88,55; 93,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,13; 95,1</t>
+          <t>90,91; 95,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,63; 92,25</t>
+          <t>87,51; 92,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,09; 94,68</t>
+          <t>90,32; 94,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,55; 93,7</t>
+          <t>90,53; 93,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,79; 89,32</t>
+          <t>85,53; 89,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,15; 93,75</t>
+          <t>90,29; 93,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,09; 94,65</t>
+          <t>90,82; 94,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,96; 91,47</t>
+          <t>87,25; 91,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,77; 91,97</t>
+          <t>87,94; 92,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,68; 93,46</t>
+          <t>89,32; 93,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,81; 91,82</t>
+          <t>87,87; 91,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,62; 91,72</t>
+          <t>87,66; 91,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,85; 93,45</t>
+          <t>90,86; 93,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,35; 91,24</t>
+          <t>88,43; 91,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>88,17; 91,35</t>
+          <t>88,47; 91,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,52; 93,75</t>
+          <t>91,64; 93,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,01; 87,62</t>
+          <t>84,89; 87,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,58; 91,78</t>
+          <t>89,34; 91,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,88</t>
+          <t>91,94; 93,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,13</t>
+          <t>87,83; 90,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>89,99; 92,28</t>
+          <t>89,89; 92,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,14; 93,6</t>
+          <t>92,05; 93,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>86,92; 88,63</t>
+          <t>86,89; 88,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>89,98; 91,59</t>
+          <t>90,16; 91,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
